--- a/team_specific_matrix/Crown (MN)_A.xlsx
+++ b/team_specific_matrix/Crown (MN)_A.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
   </sheetData>
